--- a/biology/Zoologie/Hirondelle_rousseline/Hirondelle_rousseline.xlsx
+++ b/biology/Zoologie/Hirondelle_rousseline/Hirondelle_rousseline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecropis daurica
 L'Hirondelle rousseline (Cecropis daurica) est une espèce de passereaux de la famille des Hirundinidae. Son aire de répartition s'étend de l'Australie à l'Asie et au sud de l'Europe.
@@ -514,7 +526,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une hirondelle bien caractéristique par son plumage assez coloré. Elle présente un dessus bleu foncé pourvu de quelques stries dorsales blanches.
 Sa nuque est d'un roux assez vif. Le ventre et la poitrine sont de teinte orangée. Tout comme l'hirondelle rustique, elle est dotée d'une queue longue et échancrée.
@@ -546,10 +560,12 @@
           <t>Protection en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est très rare en France où elle ne niche que dans le sud-est, notamment en Provence et la région de Cannes, en faibles effectifs.
-L'Hirondelle rousseline bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[1]. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
+L'Hirondelle rousseline bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des huit sous-espèces suivantes :
 Cecropis daurica daurica (Laxmann, 1769)
